--- a/Client/data/content.xlsx
+++ b/Client/data/content.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\Javascript\Website\Quan\Client\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FA40B64-F162-4528-9992-501C6A392A4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EDA587C-2EF9-426D-BE6E-305DCC2C4557}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="540" yWindow="1152" windowWidth="11508" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,9 +55,6 @@
     <t>Header_3</t>
   </si>
   <si>
-    <t>Our Service</t>
-  </si>
-  <si>
     <t>Liên Hệ</t>
   </si>
   <si>
@@ -92,6 +89,9 @@
   </si>
   <si>
     <t>EN</t>
+  </si>
+  <si>
+    <t>Our Services</t>
   </si>
 </sst>
 </file>
@@ -412,7 +412,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -446,13 +446,13 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
         <v>19</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>20</v>
-      </c>
-      <c r="C3" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -460,10 +460,10 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -471,10 +471,10 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
         <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -482,18 +482,18 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -501,10 +501,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
         <v>17</v>
-      </c>
-      <c r="B8" t="s">
-        <v>18</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>

--- a/Client/data/content.xlsx
+++ b/Client/data/content.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\Javascript\Website\Quan\Client\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\Javascript\Website\Cinetory-Website\Client\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89A99ED4-9EAE-4B9C-926A-9DAF620402E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA409328-ABAD-4D19-B96D-782FB43033C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9384" yWindow="1368" windowWidth="11508" windowHeight="8964" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6036" yWindow="2316" windowWidth="13812" windowHeight="8964" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Common" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="64">
   <si>
     <t>::ID::</t>
   </si>
@@ -91,9 +91,6 @@
     <t>EN</t>
   </si>
   <si>
-    <t>Our Services</t>
-  </si>
-  <si>
     <t>Email</t>
   </si>
   <si>
@@ -148,9 +145,6 @@
     <t>Phone_Name</t>
   </si>
   <si>
-    <t>https://bom.so/hl1W6O</t>
-  </si>
-  <si>
     <t>Họ và tên</t>
   </si>
   <si>
@@ -191,13 +185,49 @@
   </si>
   <si>
     <t>View Demo</t>
+  </si>
+  <si>
+    <t>My Services</t>
+  </si>
+  <si>
+    <t>QUAN_NAME</t>
+  </si>
+  <si>
+    <t>QUAN_P1</t>
+  </si>
+  <si>
+    <t>QUAN_P2</t>
+  </si>
+  <si>
+    <t>I has various experience working as lead editor for influencers such as Tizi Dich Lep, Saigon Teu, etc.</t>
+  </si>
+  <si>
+    <t>I has real passion in VFX which he quits his current course in Marketing to become an expert in VFX. Such an amazing talented young man.</t>
+  </si>
+  <si>
+    <t>Là người có nhiều kinh nghiệm sản xuất cho các Influencers như Tizi Dich Lep, Saigon Teu…</t>
+  </si>
+  <si>
+    <t>Đã làm việc trong nhiều lĩnh vực và có các project khác nhau</t>
+  </si>
+  <si>
+    <t>Lead Post-Production Editor</t>
+  </si>
+  <si>
+    <t>QUAN_ROLE</t>
+  </si>
+  <si>
+    <t>QUAN JUNN</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/junn.quannn</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -218,6 +248,32 @@
       <color rgb="FF050505"/>
       <name val="Segoe UI Historic"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Poppins"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Poppins"/>
     </font>
   </fonts>
   <fills count="2">
@@ -241,10 +297,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -566,7 +633,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -617,7 +684,7 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -639,7 +706,7 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -671,10 +738,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC9CE1EA-53C2-42D5-924E-619964027763}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -697,29 +764,29 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
-      </c>
-      <c r="B2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
         <v>29</v>
       </c>
-      <c r="B3" t="s">
-        <v>30</v>
-      </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4">
         <v>582956685</v>
@@ -730,113 +797,157 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:3" hidden="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="C7" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C15" t="s">
-        <v>43</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -877,24 +988,24 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -906,7 +1017,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E72CFB8-56DB-4D40-803A-64A7D2BA06A7}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -925,13 +1036,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" t="s">
         <v>51</v>
-      </c>
-      <c r="B2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" t="s">
-        <v>53</v>
       </c>
     </row>
   </sheetData>
